--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
@@ -404,32 +404,32 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" hidden="1">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" hidden="1">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" hidden="1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" hidden="1">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>4</x:v>
       </x:c>
     </x:row>
@@ -473,7 +473,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
@@ -484,7 +484,7 @@
       <x:c r="A3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
@@ -495,7 +495,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
@@ -506,7 +506,7 @@
       <x:c r="A5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
@@ -517,7 +517,7 @@
       <x:c r="A6" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="n">
+      <x:c r="B6" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
@@ -528,7 +528,7 @@
       <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="n">
+      <x:c r="B7" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Numbers</x:t>
   </x:si>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/AutoFilter/TopBottomAutoFilter.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Single Column Numbers" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Multi Column" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Single Column Numbers" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Multi Column" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Single Column Numbers'!$A$1:$A$7</x:definedName>
